--- a/biology/Médecine/Lividités_cadavériques/Lividités_cadavériques.xlsx
+++ b/biology/Médecine/Lividités_cadavériques/Lividités_cadavériques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lividit%C3%A9s_cadav%C3%A9riques</t>
+          <t>Lividités_cadavériques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lividités cadavériques (ou livor mortis) sont une coloration rouge à violacée de la peau liée à un déplacement passif de la masse sanguine vers les parties déclives du cadavre, qui débute dès l'arrêt de l'écoulement du sang.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lividit%C3%A9s_cadav%C3%A9riques</t>
+          <t>Lividités_cadavériques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Explication des lividités cadavériques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le processus d'apparition des lividités cadavériques débute dès la mort de l'individu. En effet :
 la pompe cardiaque fait mouvoir le sang dans l’organisme et son arrêt en entraîne la stagnation ;
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lividit%C3%A9s_cadav%C3%A9riques</t>
+          <t>Lividités_cadavériques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Utilisation pratique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La masse sanguine se déplace vers les parties déclives du corps. Les lividités cadavériques se répartissent de manière caractéristique sur le cadavre[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La masse sanguine se déplace vers les parties déclives du corps. Les lividités cadavériques se répartissent de manière caractéristique sur le cadavre :
 des zones de coloration rose bleutée de la peau apparaissent d’abord sur le cou et s’étendent ensuite à d’autres régions de l’organisme vers la quinzième heure après le décès ;
 elles épargnent les points de pression : ainsi, sous l’effet de la gravitation, le sang d’une victime allongée s’accumule, s’immobilise et deviendra persistant sous la peau non comprimée des parties les plus basses.
 La vitesse de formation des lividités est variable, dépendant notamment de la température, de l'humidité, de ventilation, des vêtements. De manière générale :
